--- a/TM_CC/CompetentLeadership.xlsx
+++ b/TM_CC/CompetentLeadership.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="6210" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20115" windowHeight="6210" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -236,7 +236,7 @@
     <t>The timer present the result clearly</t>
   </si>
   <si>
-    <t>The timer present the result more excatly and with details (like A5)</t>
+    <t>The Ah-Counter present the result more excatly and with details (like A5)</t>
   </si>
 </sst>
 </file>
@@ -813,15 +813,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -963,7 +963,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1004,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1059,9 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1073,7 +1071,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
@@ -1101,7 +1099,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1156,16 +1154,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="67" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
@@ -1229,6 +1227,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1370,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,7 +1470,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1511,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>59</v>
       </c>
